--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,21 @@
     <t>useless</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -73,244 +76,256 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>husband</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>gift</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>kids</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>always</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>long</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -674,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,31 +776,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="L3">
+        <v>89</v>
+      </c>
+      <c r="M3">
+        <v>89</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>0.978494623655914</v>
-      </c>
-      <c r="L3">
-        <v>91</v>
-      </c>
-      <c r="M3">
-        <v>91</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.575</v>
+        <v>0.675</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4341085271317829</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8668730650154799</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M6">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,16 +979,16 @@
         <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -993,38 +1008,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3636363636363636</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="L8">
         <v>36</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>36</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>63</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1043,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2564102564102564</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1405405405405405</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1161,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>0.7045454545454546</v>
@@ -1189,17 +1204,41 @@
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>158</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.6983050847457627</v>
+        <v>0.6813559322033899</v>
       </c>
       <c r="L12">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M12">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.65625</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.64446227929374</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>803</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>803</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>443</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>810</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>810</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6142857142857143</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.5882352941176471</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5480769230769231</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1471,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5269461077844312</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5263157894736842</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1523,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5180722891566265</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1575,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4923076923076923</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4786324786324787</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4736842105263158</v>
+        <v>0.48</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4360902255639098</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.42</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4126984126984127</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4102564102564102</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4096385542168675</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.392156862745098</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.382716049382716</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3651960784313725</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L37">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,47 +1900,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>259</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38">
+        <v>0.345679012345679</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>53</v>
-      </c>
-      <c r="K38">
-        <v>0.3538461538461539</v>
-      </c>
-      <c r="L38">
-        <v>23</v>
-      </c>
-      <c r="M38">
-        <v>23</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3424124513618677</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L39">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1913,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>169</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3278688524590164</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1939,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.3205479452054795</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L41">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1965,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>496</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3061224489795918</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1991,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.3026315789473684</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2017,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.3007518796992481</v>
+        <v>0.2958904109589041</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2043,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>93</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.2903225806451613</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2069,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.2733812949640288</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2095,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.2727272727272727</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L47">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2121,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.2678571428571428</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2147,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.2647058823529412</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2173,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.25</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2199,21 +2238,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.2432723358449946</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L51">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2225,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>703</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.2432432432432433</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2251,21 +2290,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>84</v>
+        <v>714</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.2079207920792079</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2277,21 +2316,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.2052980132450331</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2303,21 +2342,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.1974921630094044</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L55">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2329,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>256</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.1973509933774834</v>
+        <v>0.1960264900662252</v>
       </c>
       <c r="L56">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M56">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2355,47 +2394,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.1964285714285714</v>
+        <v>0.180306905370844</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>90</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.1851851851851852</v>
+        <v>0.1786833855799373</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2407,73 +2446,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>88</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.1739130434782609</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L59">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>646</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.1610738255033557</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>125</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.1585365853658537</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2485,21 +2524,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.1545454545454545</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2511,21 +2550,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>372</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.1531531531531531</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2537,21 +2576,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.1455525606469003</v>
+        <v>0.15</v>
       </c>
       <c r="L64">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2563,15 +2602,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>317</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.1376146788990826</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L65">
         <v>15</v>
@@ -2589,21 +2628,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.134020618556701</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L66">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2615,47 +2654,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>252</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.1293859649122807</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L67">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>397</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.1180811808118081</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2667,21 +2706,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>239</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.1129943502824859</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2693,21 +2732,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.1094890510948905</v>
+        <v>0.1264916467780429</v>
       </c>
       <c r="L70">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M70">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2724,16 +2763,16 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.1050420168067227</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2745,73 +2784,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>213</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.1028708133971292</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L72">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N72">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.08921933085501858</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M73">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>245</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.08374384236453201</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2823,21 +2862,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>186</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.07649253731343283</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L75">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2849,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>990</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.07258064516129033</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2875,47 +2914,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.07173601147776183</v>
+        <v>0.09293680297397769</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M77">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>647</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.06010928961748634</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2927,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>344</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.05719557195571956</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2953,21 +2992,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>511</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.04568527918781726</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2979,111 +3018,215 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>376</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.04414587332053743</v>
+        <v>0.06816059757236227</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>498</v>
+        <v>998</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.0398959236773634</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="L82">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M82">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N82">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1107</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.03631961259079903</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N83">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>398</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.02222222222222222</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85">
+        <v>0.04797047970479705</v>
+      </c>
+      <c r="L85">
+        <v>26</v>
+      </c>
+      <c r="M85">
+        <v>26</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K86">
+        <v>0.04155844155844156</v>
+      </c>
+      <c r="L86">
+        <v>48</v>
+      </c>
+      <c r="M86">
+        <v>50</v>
+      </c>
+      <c r="N86">
+        <v>0.96</v>
+      </c>
+      <c r="O86">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87">
+        <v>0.04046242774566474</v>
+      </c>
+      <c r="L87">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <v>24</v>
+      </c>
+      <c r="N87">
+        <v>0.88</v>
+      </c>
+      <c r="O87">
+        <v>0.12</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K88">
+        <v>0.02228047182175623</v>
+      </c>
+      <c r="L88">
         <v>17</v>
       </c>
-      <c r="M84">
-        <v>19</v>
-      </c>
-      <c r="N84">
-        <v>0.89</v>
-      </c>
-      <c r="O84">
-        <v>0.11</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>748</v>
+      <c r="M88">
+        <v>21</v>
+      </c>
+      <c r="N88">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O88">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
